--- a/SNOW.xlsx
+++ b/SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C4A27-AC5E-44B1-B5AD-8A635B639D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEDD0F-F2F2-497A-908C-F249EDF97D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="2055" windowWidth="17760" windowHeight="13500" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
+    <workbookView xWindow="-25935" yWindow="1065" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Price</t>
   </si>
@@ -195,12 +195,42 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -244,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,9 +282,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -275,13 +302,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5F5664A5-7DBE-41F3-93A0-FBC8507AE80F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07695F87-C53B-4BF8-B238-ED8253036919}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>141.30000000000001</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -666,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>314.36099999999999</v>
+        <v>331</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -678,7 +712,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>44419.209300000002</v>
+        <v>50312</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -710,7 +744,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>39391.751300000004</v>
+        <v>45284.542000000001</v>
       </c>
     </row>
   </sheetData>
@@ -720,69 +754,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950461E-5EFB-45DD-9161-EF94163D814D}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="14" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D2" s="5">
+    <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
         <v>44043</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="14">
         <v>44135</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="14">
         <v>44227</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="14">
         <v>44316</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="14">
         <v>44408</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="14">
         <v>44500</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="14">
         <v>44592</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="14">
         <v>44681</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="14">
         <v>44773</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="14">
         <v>44865</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="14">
         <v>44957</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="13">
+        <f>+K2+365</f>
+        <v>45046</v>
+      </c>
+      <c r="P2" s="13">
+        <f>+L2+365</f>
+        <v>45138</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>+M2+365</f>
+        <v>45230</v>
+      </c>
+      <c r="R2" s="13">
+        <f>+N2+365</f>
+        <v>45322</v>
+      </c>
+      <c r="S2" s="13">
+        <f>+O2+365</f>
+        <v>45411</v>
+      </c>
+      <c r="T2" s="13">
+        <f>+P2+365</f>
+        <v>45503</v>
+      </c>
+      <c r="U2" s="13">
+        <f>+Q2+365</f>
+        <v>45595</v>
+      </c>
+      <c r="V2" s="13">
+        <f>+R2+366</f>
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -819,978 +881,1106 @@
       <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="O3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>133.14500000000001</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>159.624</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>190.465</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>228.91399999999999</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>272.19799999999998</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>334.44099999999997</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>383.774</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>422.37099999999998</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="R4" s="8">
+        <v>774.69899999999996</v>
+      </c>
+      <c r="V4" s="8">
+        <v>986.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>50.445999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>66.680999999999997</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>82.903999999999996</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>97.346000000000004</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>106.121</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>120.786</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>134.18</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>147.93</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="R5" s="2">
+        <v>241.804</v>
+      </c>
+      <c r="V5" s="2">
+        <v>333.18400000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <f>+D4-D5</f>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:K6" si="0">+D4-D5</f>
         <v>82.699000000000012</v>
       </c>
-      <c r="E6" s="6">
-        <f>+E4-E5</f>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>92.942999999999998</v>
       </c>
-      <c r="F6" s="6">
-        <f>+F4-F5</f>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>107.56100000000001</v>
       </c>
-      <c r="G6" s="6">
-        <f>+G4-G5</f>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
         <v>131.56799999999998</v>
       </c>
-      <c r="H6" s="6">
-        <f>+H4-H5</f>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
         <v>166.077</v>
       </c>
-      <c r="I6" s="6">
-        <f>+I4-I5</f>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
         <v>213.65499999999997</v>
       </c>
-      <c r="J6" s="6">
-        <f>+J4-J5</f>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
         <v>249.59399999999999</v>
       </c>
-      <c r="K6" s="6">
-        <f>+K4-K5</f>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
         <v>274.44099999999997</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="R6" s="2">
+        <f>+R4-R5</f>
+        <v>532.89499999999998</v>
+      </c>
+      <c r="V6" s="2">
+        <f>+V4-V5</f>
+        <v>653.58600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>92.662999999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>134.727</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>154.05000000000001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>166.804</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>182.90299999999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>190.971</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>203.28700000000001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>243.91200000000001</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="R7" s="2">
+        <v>361.822</v>
+      </c>
+      <c r="V7" s="2">
+        <v>432.68299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>36.533000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>74.138000000000005</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>93.997</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>109.79600000000001</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>118.087</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>115.9</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>123.149</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>150.798</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="R8" s="2">
+        <v>364.476</v>
+      </c>
+      <c r="V8" s="2">
+        <v>492.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>31.186</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>53.531999999999996</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>59.911000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>60.563000000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>65.227999999999994</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>64.055000000000007</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>75.186999999999998</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>68.497</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="R9" s="2">
+        <v>82.102000000000004</v>
+      </c>
+      <c r="V9" s="2">
+        <v>115.09099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <f>SUM(D7:D9)</f>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <f t="shared" ref="D10:K10" si="1">SUM(D7:D9)</f>
         <v>160.38200000000001</v>
       </c>
-      <c r="E10" s="6">
-        <f>SUM(E7:E9)</f>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
         <v>262.39699999999999</v>
       </c>
-      <c r="F10" s="6">
-        <f>SUM(F7:F9)</f>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
         <v>307.95800000000003</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM(G7:G9)</f>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
         <v>337.16300000000001</v>
       </c>
-      <c r="H10" s="6">
-        <f>SUM(H7:H9)</f>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
         <v>366.21800000000002</v>
       </c>
-      <c r="I10" s="6">
-        <f>SUM(I7:I9)</f>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
         <v>370.92599999999999</v>
       </c>
-      <c r="J10" s="6">
-        <f>SUM(J7:J9)</f>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
         <v>401.62300000000005</v>
       </c>
-      <c r="K10" s="6">
-        <f>SUM(K7:K9)</f>
+      <c r="K10" s="5">
+        <f t="shared" si="1"/>
         <v>463.20700000000005</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="R10" s="2">
+        <f>+R9+R8+R7</f>
+        <v>808.4</v>
+      </c>
+      <c r="V10" s="2">
+        <f>+V9+V8+V7</f>
+        <v>1040.2640000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <f>+D6-D10</f>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:K11" si="2">+D6-D10</f>
         <v>-77.682999999999993</v>
       </c>
-      <c r="E11" s="6">
-        <f>+E6-E10</f>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
         <v>-169.45400000000001</v>
       </c>
-      <c r="F11" s="6">
-        <f>+F6-F10</f>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
         <v>-200.39700000000002</v>
       </c>
-      <c r="G11" s="6">
-        <f>+G6-G10</f>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
         <v>-205.59500000000003</v>
       </c>
-      <c r="H11" s="6">
-        <f>+H6-H10</f>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
         <v>-200.14100000000002</v>
       </c>
-      <c r="I11" s="6">
-        <f>+I6-I10</f>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
         <v>-157.27100000000002</v>
       </c>
-      <c r="J11" s="6">
-        <f>+J6-J10</f>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
         <v>-152.02900000000005</v>
       </c>
-      <c r="K11" s="6">
-        <f>+K6-K10</f>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
         <v>-188.76600000000008</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="R11" s="2">
+        <f>+R6-R10</f>
+        <v>-275.505</v>
+      </c>
+      <c r="V11" s="2">
+        <f>+V6-V10</f>
+        <v>-386.67800000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>1.6890000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>1.517-0.519</f>
         <v>0.99799999999999989</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>1.853+0.951</f>
         <v>2.8039999999999998</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>2.612-0.488</f>
         <v>2.1240000000000001</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>2.19</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>1.985+1.609</f>
         <v>3.5940000000000003</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>2.3420000000000001</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f>4.759-8.481</f>
         <v>-3.7219999999999995</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="R12" s="2">
+        <f>53.761+47.533</f>
+        <v>101.29400000000001</v>
+      </c>
+      <c r="V12" s="2">
+        <f>56.31-2.07+2.383</f>
+        <v>56.623000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <f>+D11+D12</f>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:K13" si="3">+D11+D12</f>
         <v>-75.994</v>
       </c>
-      <c r="E13" s="6">
-        <f>+E11+E12</f>
+      <c r="E13" s="5">
+        <f t="shared" si="3"/>
         <v>-168.45600000000002</v>
       </c>
-      <c r="F13" s="6">
-        <f>+F11+F12</f>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
         <v>-197.59300000000002</v>
       </c>
-      <c r="G13" s="6">
-        <f>+G11+G12</f>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
         <v>-203.47100000000003</v>
       </c>
-      <c r="H13" s="6">
-        <f>+H11+H12</f>
+      <c r="H13" s="5">
+        <f t="shared" si="3"/>
         <v>-197.95100000000002</v>
       </c>
-      <c r="I13" s="6">
-        <f>+I11+I12</f>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
         <v>-153.67700000000002</v>
       </c>
-      <c r="J13" s="6">
-        <f>+J11+J12</f>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
         <v>-149.68700000000004</v>
       </c>
-      <c r="K13" s="6">
-        <f>+K11+K12</f>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
         <v>-192.48800000000008</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="R13" s="2">
+        <f>+R11+R12</f>
+        <v>-174.21099999999998</v>
+      </c>
+      <c r="V13" s="2">
+        <f>+V11+V12</f>
+        <v>-330.05500000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.433</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1.3420000000000001</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>-0.251</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0.51400000000000001</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>1.179</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>1.546</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>-26.693999999999999</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="R14" s="2">
+        <f>4.299-0.56</f>
+        <v>3.7390000000000003</v>
+      </c>
+      <c r="V14" s="2">
+        <f>4.331-1.75</f>
+        <v>2.5810000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <f>+D13-D14</f>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:K15" si="4">+D13-D14</f>
         <v>-76.525000000000006</v>
       </c>
-      <c r="E15" s="6">
-        <f>+E13-E14</f>
+      <c r="E15" s="5">
+        <f t="shared" si="4"/>
         <v>-168.88900000000001</v>
       </c>
-      <c r="F15" s="6">
-        <f>+F13-F14</f>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
         <v>-198.93500000000003</v>
       </c>
-      <c r="G15" s="6">
-        <f>+G13-G14</f>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
         <v>-203.22000000000003</v>
       </c>
-      <c r="H15" s="6">
-        <f>+H13-H14</f>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
         <v>-198.46500000000003</v>
       </c>
-      <c r="I15" s="6">
-        <f>+I13-I14</f>
+      <c r="I15" s="5">
+        <f t="shared" si="4"/>
         <v>-154.85600000000002</v>
       </c>
-      <c r="J15" s="6">
-        <f>+J13-J14</f>
+      <c r="J15" s="5">
+        <f t="shared" si="4"/>
         <v>-151.23300000000003</v>
       </c>
-      <c r="K15" s="6">
-        <f>+K13-K14</f>
+      <c r="K15" s="5">
+        <f t="shared" si="4"/>
         <v>-165.7940000000001</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="R15" s="2">
+        <f>+R13+R14</f>
+        <v>-170.47199999999998</v>
+      </c>
+      <c r="V15" s="2">
+        <f>+V13+V14</f>
+        <v>-327.4740000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
-        <f>+D15/D17</f>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:K16" si="5">+D15/D17</f>
         <v>-1.2913291780742517</v>
       </c>
-      <c r="E16" s="7">
-        <f>+E15/E17</f>
+      <c r="E16" s="6">
+        <f t="shared" si="5"/>
         <v>-1.0121101563988826</v>
       </c>
-      <c r="F16" s="7">
-        <f>+F15/F17</f>
+      <c r="F16" s="6">
+        <f t="shared" si="5"/>
         <v>-0.70017512244406388</v>
       </c>
-      <c r="G16" s="7">
-        <f>+G15/G17</f>
+      <c r="G16" s="6">
+        <f t="shared" si="5"/>
         <v>-0.69742540822139709</v>
       </c>
-      <c r="H16" s="7">
-        <f>+H15/H17</f>
+      <c r="H16" s="6">
+        <f t="shared" si="5"/>
         <v>-0.666622779365454</v>
       </c>
-      <c r="I16" s="7">
-        <f>+I15/I17</f>
+      <c r="I16" s="6">
+        <f t="shared" si="5"/>
         <v>-0.51106463212189535</v>
       </c>
-      <c r="J16" s="7">
-        <f>+J15/J17</f>
+      <c r="J16" s="6">
+        <f t="shared" si="5"/>
         <v>-0.48991318468714745</v>
       </c>
-      <c r="K16" s="7">
-        <f>+K15/K17</f>
+      <c r="K16" s="6">
+        <f t="shared" si="5"/>
         <v>-0.52740002735708347</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="1">
+        <f>+R15/R17</f>
+        <v>-0.51489825691149238</v>
+      </c>
+      <c r="V16" s="1">
+        <f>+V15/V17</f>
+        <v>-0.98805788215984003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>59.260644999999997</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>166.8682</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>284.12177700000001</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>291.38600000000002</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>297.71709900000002</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>303.006685</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>308.693468</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>314.36099999999999</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="19" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="R17" s="2">
+        <v>331.07900000000001</v>
+      </c>
+      <c r="V17" s="2">
+        <v>331.43200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11">
         <f>+H4/D4-1</f>
         <v>1.0443726764054224</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f>+I4/E4-1</f>
         <v>1.0951799228186236</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <f>+J4/F4-1</f>
         <v>1.0149318772477884</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <f>+K4/G4-1</f>
         <v>0.84510776973011703</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="V19" s="15">
+        <f>+V4/R4-1</f>
+        <v>0.27374631953829809</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="8">
-        <f>+D6/D4</f>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:K20" si="6">+D6/D4</f>
         <v>0.6211198317623644</v>
       </c>
-      <c r="E20" s="8">
-        <f>+E6/E4</f>
+      <c r="E20" s="7">
+        <f t="shared" si="6"/>
         <v>0.5822620658547587</v>
       </c>
-      <c r="F20" s="8">
-        <f>+F6/F4</f>
+      <c r="F20" s="7">
+        <f t="shared" si="6"/>
         <v>0.56472842779513299</v>
       </c>
-      <c r="G20" s="8">
-        <f>+G6/G4</f>
+      <c r="G20" s="7">
+        <f t="shared" si="6"/>
         <v>0.57474859554243074</v>
       </c>
-      <c r="H20" s="8">
-        <f>+H6/H4</f>
+      <c r="H20" s="7">
+        <f t="shared" si="6"/>
         <v>0.61013306490128516</v>
       </c>
-      <c r="I20" s="8">
-        <f>+I6/I4</f>
+      <c r="I20" s="7">
+        <f t="shared" si="6"/>
         <v>0.63884212760995207</v>
       </c>
-      <c r="J20" s="8">
-        <f>+J6/J4</f>
+      <c r="J20" s="7">
+        <f t="shared" si="6"/>
         <v>0.65036714316238198</v>
       </c>
-      <c r="K20" s="8">
-        <f>+K6/K4</f>
+      <c r="K20" s="7">
+        <f t="shared" si="6"/>
         <v>0.64976288618300027</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
         <f>1063.401+2751.679+1212.378</f>
         <v>5027.4579999999996</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
         <v>277.55900000000003</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <f>53.943+124.34</f>
         <v>178.28300000000002</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
         <v>195.15100000000001</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
         <v>118.611</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
         <v>188.946</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
         <f>502.614+181.851</f>
         <v>684.46499999999992</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
         <v>352.226</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f>SUM(K22:K29)</f>
         <v>7022.6989999999996</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
         <f>K15</f>
         <v>-165.7940000000001</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
         <v>-165.79400000000001</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
         <v>9.9410000000000007</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
         <v>10.090999999999999</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
         <v>13.201000000000001</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
         <v>172.49299999999999</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
         <v>8.1980000000000004</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5">
         <v>8.859</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
         <v>-26.664000000000001</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
         <v>1.7609999999999999</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
         <f>266.656-16.718-57.535+4.158-14.217-8.376-21.441</f>
         <v>152.52699999999999</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
         <f>SUM(K33:K42)</f>
         <v>184.61299999999997</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/SNOW.xlsx
+++ b/SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEDD0F-F2F2-497A-908C-F249EDF97D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4A17A-CA03-4609-915C-98B2926D9C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25935" yWindow="1065" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
+    <workbookView xWindow="-34155" yWindow="420" windowWidth="22095" windowHeight="14550" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Price</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>FQ326</t>
+  </si>
+  <si>
+    <t>FQ426</t>
   </si>
 </sst>
 </file>
@@ -229,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -302,8 +314,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -325,61 +337,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C0F9D1-5A5B-C912-E3CB-E5C298ED84A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="47625"/>
-          <a:ext cx="0" cy="6705600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,21 +638,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07695F87-C53B-4BF8-B238-ED8253036919}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -706,16 +661,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>50312</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>66531</v>
+      </c>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -727,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -738,13 +693,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>45284.542000000001</v>
+        <v>61503.542000000001</v>
       </c>
     </row>
   </sheetData>
@@ -754,29 +709,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950461E-5EFB-45DD-9161-EF94163D814D}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="14" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="11" width="8.6328125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14"/>
       <c r="D2" s="14">
         <v>44043</v>
@@ -812,39 +769,42 @@
         <v>44957</v>
       </c>
       <c r="O2" s="13">
-        <f>+K2+365</f>
+        <f t="shared" ref="O2:U2" si="0">+K2+365</f>
         <v>45046</v>
       </c>
       <c r="P2" s="13">
-        <f>+L2+365</f>
+        <f t="shared" si="0"/>
         <v>45138</v>
       </c>
       <c r="Q2" s="13">
-        <f>+M2+365</f>
+        <f t="shared" si="0"/>
         <v>45230</v>
       </c>
       <c r="R2" s="13">
-        <f>+N2+365</f>
+        <f t="shared" si="0"/>
         <v>45322</v>
       </c>
       <c r="S2" s="13">
-        <f>+O2+365</f>
+        <f t="shared" si="0"/>
         <v>45411</v>
       </c>
       <c r="T2" s="13">
-        <f>+P2+365</f>
+        <f t="shared" si="0"/>
         <v>45503</v>
       </c>
       <c r="U2" s="13">
-        <f>+Q2+365</f>
+        <f t="shared" si="0"/>
         <v>45595</v>
       </c>
       <c r="V2" s="13">
         <f>+R2+366</f>
         <v>45688</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="13">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -905,8 +865,20 @@
       <c r="V3" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -935,17 +907,44 @@
       <c r="K4" s="9">
         <v>422.37099999999998</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="L4" s="8">
+        <v>497.24799999999999</v>
+      </c>
+      <c r="M4" s="8">
+        <v>557.02800000000002</v>
+      </c>
+      <c r="N4" s="8">
+        <v>589.01199999999994</v>
+      </c>
+      <c r="O4" s="8">
+        <v>623.59900000000005</v>
+      </c>
+      <c r="P4" s="8">
+        <v>674.01800000000003</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>734.173</v>
+      </c>
       <c r="R4" s="8">
         <v>774.69899999999996</v>
       </c>
+      <c r="S4" s="8">
+        <v>828.70899999999995</v>
+      </c>
+      <c r="T4" s="8">
+        <v>868.82299999999998</v>
+      </c>
+      <c r="U4" s="8">
+        <v>942.09400000000005</v>
+      </c>
       <c r="V4" s="8">
         <v>986.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="8">
+        <v>1042.0740000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -974,66 +973,130 @@
       <c r="K5" s="5">
         <v>147.93</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="2">
+        <v>173.232</v>
+      </c>
+      <c r="M5" s="2">
+        <v>190.721</v>
+      </c>
+      <c r="N5" s="2">
+        <v>205.65700000000001</v>
+      </c>
+      <c r="O5" s="2">
+        <v>209.41399999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>228.94800000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>228.94800000000001</v>
+      </c>
       <c r="R5" s="2">
         <v>241.804</v>
       </c>
+      <c r="S5" s="2">
+        <v>272.517</v>
+      </c>
+      <c r="T5" s="2">
+        <v>288.07799999999997</v>
+      </c>
+      <c r="U5" s="2">
+        <v>320.89400000000001</v>
+      </c>
       <c r="V5" s="2">
         <v>333.18400000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W5" s="2">
+        <v>348.786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:K6" si="0">+D4-D5</f>
+        <f t="shared" ref="D6:K6" si="1">+D4-D5</f>
         <v>82.699000000000012</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.942999999999998</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107.56100000000001</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131.56799999999998</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>166.077</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213.65499999999997</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>249.59399999999999</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>274.44099999999997</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6" si="2">+L4-L5</f>
+        <v>324.01599999999996</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:N6" si="3">+M4-M5</f>
+        <v>366.30700000000002</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="3"/>
+        <v>383.3549999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <f>+O4-O5</f>
+        <v>414.18500000000006</v>
+      </c>
+      <c r="P6" s="2">
+        <f>+P4-P5</f>
+        <v>445.07000000000005</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>+Q4-Q5</f>
+        <v>505.22500000000002</v>
+      </c>
       <c r="R6" s="2">
         <f>+R4-R5</f>
         <v>532.89499999999998</v>
       </c>
+      <c r="S6" s="2">
+        <f>+S4-S5</f>
+        <v>556.19200000000001</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" ref="T6" si="4">+T4-T5</f>
+        <v>580.745</v>
+      </c>
+      <c r="U6" s="2">
+        <f>+U4-U5</f>
+        <v>621.20000000000005</v>
+      </c>
       <c r="V6" s="2">
         <f>+V4-V5</f>
         <v>653.58600000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="2">
+        <f>+W4-W5</f>
+        <v>693.28800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1062,17 +1125,44 @@
       <c r="K7" s="5">
         <v>243.91200000000001</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="L7" s="2">
+        <v>274.64499999999998</v>
+      </c>
+      <c r="M7" s="2">
+        <v>284.47699999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>303.47300000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>331.55799999999999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>355.07900000000001</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>355.07900000000001</v>
+      </c>
       <c r="R7" s="2">
         <v>361.822</v>
       </c>
+      <c r="S7" s="2">
+        <v>400.822</v>
+      </c>
+      <c r="T7" s="2">
+        <v>400.625</v>
+      </c>
+      <c r="U7" s="2">
+        <v>437.96199999999999</v>
+      </c>
       <c r="V7" s="2">
         <v>432.68299999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="2">
+        <v>458.55399999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1101,17 +1191,44 @@
       <c r="K8" s="5">
         <v>150.798</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="L8" s="2">
+        <v>183.74799999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>211.387</v>
+      </c>
+      <c r="N8" s="2">
+        <v>242.125</v>
+      </c>
+      <c r="O8" s="2">
+        <v>277.41199999999998</v>
+      </c>
+      <c r="P8" s="2">
+        <v>332.065</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>332.065</v>
+      </c>
       <c r="R8" s="2">
         <v>364.476</v>
       </c>
+      <c r="S8" s="2">
+        <v>410.79399999999998</v>
+      </c>
+      <c r="T8" s="2">
+        <v>437.66</v>
+      </c>
+      <c r="U8" s="2">
+        <v>442.435</v>
+      </c>
       <c r="V8" s="2">
         <v>492.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="2">
+        <v>472.404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1140,115 +1257,216 @@
       <c r="K9" s="5">
         <v>68.497</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="L9" s="2">
+        <v>73.355000000000004</v>
+      </c>
+      <c r="M9" s="2">
+        <v>76.462000000000003</v>
+      </c>
+      <c r="N9" s="2">
+        <v>77.507000000000005</v>
+      </c>
+      <c r="O9" s="2">
+        <v>78.453000000000003</v>
+      </c>
+      <c r="P9" s="2">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>78.703999999999994</v>
+      </c>
       <c r="R9" s="2">
         <v>82.102000000000004</v>
       </c>
+      <c r="S9" s="2">
+        <v>93.147999999999996</v>
+      </c>
+      <c r="T9" s="2">
+        <v>97.763000000000005</v>
+      </c>
+      <c r="U9" s="2">
+        <v>106.26</v>
+      </c>
       <c r="V9" s="2">
         <v>115.09099999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W9" s="2">
+        <v>209.58699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <f t="shared" ref="D10:K10" si="1">SUM(D7:D9)</f>
+        <f t="shared" ref="D10:K10" si="5">SUM(D7:D9)</f>
         <v>160.38200000000001</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>262.39699999999999</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>307.95800000000003</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>337.16300000000001</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>366.21800000000002</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>370.92599999999999</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>401.62300000000005</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>463.20700000000005</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="6">+L9+L8+L7</f>
+        <v>531.74800000000005</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10:N10" si="7">+M9+M8+M7</f>
+        <v>572.32600000000002</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="7"/>
+        <v>623.10500000000002</v>
+      </c>
+      <c r="O10" s="2">
+        <f>+O9+O8+O7</f>
+        <v>687.423</v>
+      </c>
+      <c r="P10" s="2">
+        <f>+P9+P8+P7</f>
+        <v>765.84799999999996</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>+Q9+Q8+Q7</f>
+        <v>765.84799999999996</v>
+      </c>
       <c r="R10" s="2">
         <f>+R9+R8+R7</f>
         <v>808.4</v>
       </c>
+      <c r="S10" s="2">
+        <f>+S9+S8+S7</f>
+        <v>904.76400000000001</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" ref="T10" si="8">+T9+T8+T7</f>
+        <v>936.048</v>
+      </c>
+      <c r="U10" s="2">
+        <f>+U9+U8+U7</f>
+        <v>986.65700000000004</v>
+      </c>
       <c r="V10" s="2">
         <f>+V9+V8+V7</f>
         <v>1040.2640000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W10" s="2">
+        <f>+W9+W8+W7</f>
+        <v>1140.5450000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:K11" si="2">+D6-D10</f>
+        <f t="shared" ref="D11:K11" si="9">+D6-D10</f>
         <v>-77.682999999999993</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-169.45400000000001</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-200.39700000000002</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-205.59500000000003</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-200.14100000000002</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-157.27100000000002</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-152.02900000000005</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-188.76600000000008</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11" si="10">+L6-L10</f>
+        <v>-207.73200000000008</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11:N11" si="11">+M6-M10</f>
+        <v>-206.01900000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="11"/>
+        <v>-239.75000000000011</v>
+      </c>
+      <c r="O11" s="2">
+        <f>+O6-O10</f>
+        <v>-273.23799999999994</v>
+      </c>
+      <c r="P11" s="2">
+        <f>+P6-P10</f>
+        <v>-320.77799999999991</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>+Q6-Q10</f>
+        <v>-260.62299999999993</v>
+      </c>
       <c r="R11" s="2">
         <f>+R6-R10</f>
         <v>-275.505</v>
       </c>
+      <c r="S11" s="2">
+        <f>+S6-S10</f>
+        <v>-348.572</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" ref="T11" si="12">+T6-T10</f>
+        <v>-355.303</v>
+      </c>
+      <c r="U11" s="2">
+        <f>+U6-U10</f>
+        <v>-365.45699999999999</v>
+      </c>
       <c r="V11" s="2">
         <f>+V6-V10</f>
         <v>-386.67800000000011</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W11" s="2">
+        <f>+W6-W10</f>
+        <v>-447.25700000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1282,68 +1500,134 @@
         <f>4.759-8.481</f>
         <v>-3.7219999999999995</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="L12" s="2">
+        <v>11.692</v>
+      </c>
+      <c r="M12" s="2">
+        <v>21.856999999999999</v>
+      </c>
+      <c r="N12" s="2">
+        <v>35.530999999999999</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43.131</v>
+      </c>
+      <c r="P12" s="2">
+        <v>53.491</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>53.491</v>
+      </c>
       <c r="R12" s="2">
         <f>53.761+47.533</f>
         <v>101.29400000000001</v>
       </c>
+      <c r="S12" s="2">
+        <v>54.779000000000003</v>
+      </c>
+      <c r="T12" s="2">
+        <v>49.265000000000001</v>
+      </c>
+      <c r="U12" s="2">
+        <f>48.655-0.689</f>
+        <v>47.966000000000001</v>
+      </c>
       <c r="V12" s="2">
         <f>56.31-2.07+2.383</f>
         <v>56.623000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="2">
+        <f>53.163-2.071</f>
+        <v>51.091999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:K13" si="3">+D11+D12</f>
+        <f t="shared" ref="D13:K13" si="13">+D11+D12</f>
         <v>-75.994</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-168.45600000000002</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-197.59300000000002</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-203.47100000000003</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-197.95100000000002</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-153.67700000000002</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-149.68700000000004</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-192.48800000000008</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13" si="14">+L11+L12</f>
+        <v>-196.04000000000008</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:N13" si="15">+M11+M12</f>
+        <v>-184.16200000000001</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="15"/>
+        <v>-204.21900000000011</v>
+      </c>
+      <c r="O13" s="2">
+        <f>+O11+O12</f>
+        <v>-230.10699999999994</v>
+      </c>
+      <c r="P13" s="2">
+        <f>+P11+P12</f>
+        <v>-267.28699999999992</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>+Q11+Q12</f>
+        <v>-207.13199999999995</v>
+      </c>
       <c r="R13" s="2">
         <f>+R11+R12</f>
         <v>-174.21099999999998</v>
       </c>
+      <c r="S13" s="2">
+        <f>+S11+S12</f>
+        <v>-293.79300000000001</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" ref="T13" si="16">+T11+T12</f>
+        <v>-306.03800000000001</v>
+      </c>
+      <c r="U13" s="2">
+        <f>+U11+U12</f>
+        <v>-317.49099999999999</v>
+      </c>
       <c r="V13" s="2">
         <f>+V11+V12</f>
         <v>-330.05500000000012</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W13" s="2">
+        <f>+W11+W12</f>
+        <v>-396.16500000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1372,113 +1656,217 @@
       <c r="K14" s="5">
         <v>-26.693999999999999</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="L14" s="2">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.3919999999999999</v>
+      </c>
       <c r="R14" s="2">
         <f>4.299-0.56</f>
         <v>3.7390000000000003</v>
       </c>
+      <c r="S14" s="2">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1.9370000000000001</v>
+      </c>
       <c r="V14" s="2">
         <f>4.331-1.75</f>
         <v>2.5810000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="2">
+        <v>5.7290000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <f t="shared" ref="D15:K15" si="4">+D13-D14</f>
+        <f t="shared" ref="D15:K15" si="17">+D13-D14</f>
         <v>-76.525000000000006</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-168.88900000000001</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-198.93500000000003</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-203.22000000000003</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-198.46500000000003</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-154.85600000000002</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-151.23300000000003</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>-165.7940000000001</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="18">+L13+L14</f>
+        <v>-192.19400000000007</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:N15" si="19">+M13+M14</f>
+        <v>-180.15300000000002</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="19"/>
+        <v>-204.21900000000011</v>
+      </c>
+      <c r="O15" s="2">
+        <f>+O13+O14</f>
+        <v>-226.71499999999995</v>
+      </c>
+      <c r="P15" s="2">
+        <f>+P13+P14</f>
+        <v>-263.89499999999992</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>+Q13+Q14</f>
+        <v>-203.73999999999995</v>
+      </c>
       <c r="R15" s="2">
         <f>+R13+R14</f>
         <v>-170.47199999999998</v>
       </c>
+      <c r="S15" s="2">
+        <f>+S13+S14</f>
+        <v>-291.072</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" ref="T15" si="20">+T13+T14</f>
+        <v>-306.03800000000001</v>
+      </c>
+      <c r="U15" s="2">
+        <f>+U13+U14</f>
+        <v>-315.55399999999997</v>
+      </c>
       <c r="V15" s="2">
         <f>+V13+V14</f>
         <v>-327.4740000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="2">
+        <f>+W13+W14</f>
+        <v>-390.43600000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" ref="D16:K16" si="5">+D15/D17</f>
+        <f t="shared" ref="D16:K16" si="21">+D15/D17</f>
         <v>-1.2913291780742517</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-1.0121101563988826</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-0.70017512244406388</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-0.69742540822139709</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-0.666622779365454</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-0.51106463212189535</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-0.48991318468714745</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-0.52740002735708347</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="22">+L15/L17</f>
+        <v>-0.60370779881641956</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16:N16" si="23">+M15/M17</f>
+        <v>-0.56274071875927356</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="23"/>
+        <v>-0.63437022402803189</v>
+      </c>
+      <c r="O16" s="1">
+        <f>+O15/O17</f>
+        <v>-0.68845464759648944</v>
+      </c>
+      <c r="P16" s="1">
+        <f>+P15/P17</f>
+        <v>-0.80135738362029674</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>+Q15/Q17</f>
+        <v>-0.61868755883514004</v>
       </c>
       <c r="R16" s="1">
         <f>+R15/R17</f>
         <v>-0.51489825691149238</v>
       </c>
+      <c r="S16" s="1">
+        <f>+S15/S17</f>
+        <v>-0.87255983500407697</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" ref="T16" si="24">+T15/T17</f>
+        <v>-0.91608670013260651</v>
+      </c>
+      <c r="U16" s="1">
+        <f>+U15/U17</f>
+        <v>-0.95114856779428547</v>
+      </c>
       <c r="V16" s="1">
         <f>+V15/V17</f>
         <v>-0.98805788215984003</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="1">
+        <f>+W15/W17</f>
+        <v>-1.1736894158247086</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1507,17 +1895,44 @@
       <c r="K17" s="5">
         <v>314.36099999999999</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="L17" s="2">
+        <v>318.35599999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>320.13499999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>321.92399999999998</v>
+      </c>
+      <c r="O17" s="2">
+        <v>329.31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>329.31</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>329.31</v>
+      </c>
       <c r="R17" s="2">
         <v>331.07900000000001</v>
       </c>
+      <c r="S17" s="2">
+        <v>333.584</v>
+      </c>
+      <c r="T17" s="2">
+        <v>334.07100000000003</v>
+      </c>
+      <c r="U17" s="2">
+        <v>331.76100000000002</v>
+      </c>
       <c r="V17" s="2">
         <v>331.43200000000002</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="2">
+        <v>332.65699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
@@ -1542,52 +1957,141 @@
         <f>+K4/G4-1</f>
         <v>0.84510776973011703</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="V19" s="15">
-        <f>+V4/R4-1</f>
+      <c r="L19" s="11">
+        <f>+L4/H4-1</f>
+        <v>0.8267878529599777</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19:V19" si="25">+M4/I4-1</f>
+        <v>0.66554937941221337</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.53478870376836363</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.47642475454043964</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.35549665358131155</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.31801812476213032</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.31525164173225684</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.32891329203542652</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.2890204712633786</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="25"/>
+        <v>0.2832043673630058</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="25"/>
         <v>0.27374631953829809</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="15">
+        <f>+W4/S4-1</f>
+        <v>0.25746673440254675</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:K20" si="6">+D6/D4</f>
+        <f t="shared" ref="D20:W20" si="26">+D6/D4</f>
         <v>0.6211198317623644</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.5822620658547587</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.56472842779513299</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.57474859554243074</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.61013306490128516</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.63884212760995207</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.65036714316238198</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.64976288618300027</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.6516185082695154</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.65760967132711468</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.65084412541679959</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.66418483673001405</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.66032361153559704</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.68815524406372885</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.68787361284834503</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.67115477206112162</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.6684272861100593</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.65938218479260036</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.66234887562451228</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="26"/>
+        <v>0.66529632252603943</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +2111,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1626,7 +2130,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1646,7 +2150,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1665,7 +2169,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +2188,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1703,7 +2207,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +2227,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1742,7 +2246,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1751,7 +2255,7 @@
         <v>7022.6989999999996</v>
       </c>
     </row>
-    <row r="32" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1771,7 +2275,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1790,7 +2294,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1809,7 +2313,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1828,7 +2332,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1847,7 +2351,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
@@ -1866,7 +2370,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
@@ -1885,7 +2389,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
@@ -1904,7 +2408,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1923,7 +2427,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1942,7 +2446,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1962,7 +2466,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1987,6 +2491,5 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{567BD3AE-9464-472E-91DA-BE401641621D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>